--- a/public/spreadsheets/cash-flow-2021-04-18.xlsx
+++ b/public/spreadsheets/cash-flow-2021-04-18.xlsx
@@ -1979,7 +1979,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F281"/>
+  <dimension ref="A1:F340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -6890,6 +6890,1046 @@
       </c>
       <c r="F281" t="s">
         <v>511</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" t="s">
+        <v>1</v>
+      </c>
+      <c r="B284" t="s">
+        <v>2</v>
+      </c>
+      <c r="C284" t="s">
+        <v>3</v>
+      </c>
+      <c r="D284" t="s">
+        <v>4</v>
+      </c>
+      <c r="E284" t="s">
+        <v>5</v>
+      </c>
+      <c r="F284" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" t="s">
+        <v>7</v>
+      </c>
+      <c r="B285"/>
+      <c r="C285"/>
+      <c r="D285"/>
+      <c r="E285"/>
+      <c r="F285"/>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" t="s">
+        <v>8</v>
+      </c>
+      <c r="B286" t="s">
+        <v>9</v>
+      </c>
+      <c r="C286" t="s">
+        <v>9</v>
+      </c>
+      <c r="D286" t="s">
+        <v>10</v>
+      </c>
+      <c r="E286" t="s">
+        <v>11</v>
+      </c>
+      <c r="F286" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" t="s">
+        <v>13</v>
+      </c>
+      <c r="B287" t="s">
+        <v>14</v>
+      </c>
+      <c r="C287" t="s">
+        <v>14</v>
+      </c>
+      <c r="D287" t="s">
+        <v>15</v>
+      </c>
+      <c r="E287" t="s">
+        <v>16</v>
+      </c>
+      <c r="F287" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" t="s">
+        <v>18</v>
+      </c>
+      <c r="B288" t="s">
+        <v>19</v>
+      </c>
+      <c r="C288" t="s">
+        <v>19</v>
+      </c>
+      <c r="D288" t="s">
+        <v>20</v>
+      </c>
+      <c r="E288" t="s">
+        <v>21</v>
+      </c>
+      <c r="F288" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" t="s">
+        <v>23</v>
+      </c>
+      <c r="B289" t="s">
+        <v>24</v>
+      </c>
+      <c r="C289" t="s">
+        <v>24</v>
+      </c>
+      <c r="D289" t="s">
+        <v>25</v>
+      </c>
+      <c r="E289" t="s">
+        <v>26</v>
+      </c>
+      <c r="F289" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" t="s">
+        <v>28</v>
+      </c>
+      <c r="B290" t="s">
+        <v>29</v>
+      </c>
+      <c r="C290" t="s">
+        <v>29</v>
+      </c>
+      <c r="D290" t="s">
+        <v>30</v>
+      </c>
+      <c r="E290" t="s">
+        <v>31</v>
+      </c>
+      <c r="F290" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" t="s">
+        <v>33</v>
+      </c>
+      <c r="B291" t="s">
+        <v>34</v>
+      </c>
+      <c r="C291" t="s">
+        <v>34</v>
+      </c>
+      <c r="D291" t="s">
+        <v>35</v>
+      </c>
+      <c r="E291" t="s">
+        <v>36</v>
+      </c>
+      <c r="F291" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" t="s">
+        <v>38</v>
+      </c>
+      <c r="B292"/>
+      <c r="C292"/>
+      <c r="D292"/>
+      <c r="E292"/>
+      <c r="F292"/>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" t="s">
+        <v>39</v>
+      </c>
+      <c r="B293" t="s">
+        <v>40</v>
+      </c>
+      <c r="C293" t="s">
+        <v>40</v>
+      </c>
+      <c r="D293" t="s">
+        <v>41</v>
+      </c>
+      <c r="E293" t="s">
+        <v>42</v>
+      </c>
+      <c r="F293" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" t="s">
+        <v>44</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+      <c r="D294" t="s">
+        <v>45</v>
+      </c>
+      <c r="E294" t="s">
+        <v>45</v>
+      </c>
+      <c r="F294" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" t="s">
+        <v>46</v>
+      </c>
+      <c r="B295" t="s">
+        <v>47</v>
+      </c>
+      <c r="C295" t="s">
+        <v>47</v>
+      </c>
+      <c r="D295" t="s">
+        <v>45</v>
+      </c>
+      <c r="E295" t="s">
+        <v>45</v>
+      </c>
+      <c r="F295" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" t="s">
+        <v>49</v>
+      </c>
+      <c r="B296" t="s">
+        <v>45</v>
+      </c>
+      <c r="C296" t="s">
+        <v>45</v>
+      </c>
+      <c r="D296" t="s">
+        <v>45</v>
+      </c>
+      <c r="E296" t="s">
+        <v>50</v>
+      </c>
+      <c r="F296" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" t="s">
+        <v>51</v>
+      </c>
+      <c r="B297" t="s">
+        <v>52</v>
+      </c>
+      <c r="C297" t="s">
+        <v>52</v>
+      </c>
+      <c r="D297" t="s">
+        <v>53</v>
+      </c>
+      <c r="E297" t="s">
+        <v>54</v>
+      </c>
+      <c r="F297" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" t="s">
+        <v>55</v>
+      </c>
+      <c r="B298" t="s">
+        <v>56</v>
+      </c>
+      <c r="C298" t="s">
+        <v>56</v>
+      </c>
+      <c r="D298" t="s">
+        <v>57</v>
+      </c>
+      <c r="E298" t="s">
+        <v>58</v>
+      </c>
+      <c r="F298" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" t="s">
+        <v>60</v>
+      </c>
+      <c r="B299" t="s">
+        <v>61</v>
+      </c>
+      <c r="C299" t="s">
+        <v>61</v>
+      </c>
+      <c r="D299" t="s">
+        <v>62</v>
+      </c>
+      <c r="E299" t="s">
+        <v>63</v>
+      </c>
+      <c r="F299" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" t="s">
+        <v>65</v>
+      </c>
+      <c r="B300" t="s">
+        <v>66</v>
+      </c>
+      <c r="C300" t="s">
+        <v>66</v>
+      </c>
+      <c r="D300" t="s">
+        <v>67</v>
+      </c>
+      <c r="E300" t="s">
+        <v>68</v>
+      </c>
+      <c r="F300" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" t="s">
+        <v>70</v>
+      </c>
+      <c r="B301" t="s">
+        <v>71</v>
+      </c>
+      <c r="C301" t="s">
+        <v>71</v>
+      </c>
+      <c r="D301" t="s">
+        <v>72</v>
+      </c>
+      <c r="E301" t="s">
+        <v>73</v>
+      </c>
+      <c r="F301" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" t="s">
+        <v>75</v>
+      </c>
+      <c r="B302"/>
+      <c r="C302"/>
+      <c r="D302"/>
+      <c r="E302"/>
+      <c r="F302"/>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" t="s">
+        <v>76</v>
+      </c>
+      <c r="B303" t="s">
+        <v>34</v>
+      </c>
+      <c r="C303" t="s">
+        <v>34</v>
+      </c>
+      <c r="D303" t="s">
+        <v>35</v>
+      </c>
+      <c r="E303" t="s">
+        <v>36</v>
+      </c>
+      <c r="F303" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" t="s">
+        <v>77</v>
+      </c>
+      <c r="B304" t="s">
+        <v>40</v>
+      </c>
+      <c r="C304" t="s">
+        <v>40</v>
+      </c>
+      <c r="D304" t="s">
+        <v>41</v>
+      </c>
+      <c r="E304" t="s">
+        <v>42</v>
+      </c>
+      <c r="F304" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" t="s">
+        <v>75</v>
+      </c>
+      <c r="B305" t="s">
+        <v>24</v>
+      </c>
+      <c r="C305" t="s">
+        <v>24</v>
+      </c>
+      <c r="D305" t="s">
+        <v>25</v>
+      </c>
+      <c r="E305" t="s">
+        <v>26</v>
+      </c>
+      <c r="F305" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" t="s">
+        <v>1</v>
+      </c>
+      <c r="B308" t="s">
+        <v>2</v>
+      </c>
+      <c r="C308" t="s">
+        <v>79</v>
+      </c>
+      <c r="D308" t="s">
+        <v>80</v>
+      </c>
+      <c r="E308" t="s">
+        <v>81</v>
+      </c>
+      <c r="F308" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" t="s">
+        <v>7</v>
+      </c>
+      <c r="B309"/>
+      <c r="C309"/>
+      <c r="D309"/>
+      <c r="E309"/>
+      <c r="F309"/>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" t="s">
+        <v>8</v>
+      </c>
+      <c r="B310" t="s">
+        <v>83</v>
+      </c>
+      <c r="C310" t="s">
+        <v>84</v>
+      </c>
+      <c r="D310" t="s">
+        <v>85</v>
+      </c>
+      <c r="E310" t="s">
+        <v>86</v>
+      </c>
+      <c r="F310" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" t="s">
+        <v>13</v>
+      </c>
+      <c r="B311" t="s">
+        <v>88</v>
+      </c>
+      <c r="C311" t="s">
+        <v>89</v>
+      </c>
+      <c r="D311" t="s">
+        <v>90</v>
+      </c>
+      <c r="E311" t="s">
+        <v>91</v>
+      </c>
+      <c r="F311" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" t="s">
+        <v>93</v>
+      </c>
+      <c r="B312" t="s">
+        <v>94</v>
+      </c>
+      <c r="C312" t="s">
+        <v>95</v>
+      </c>
+      <c r="D312" t="s">
+        <v>96</v>
+      </c>
+      <c r="E312" t="s">
+        <v>97</v>
+      </c>
+      <c r="F312" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" t="s">
+        <v>99</v>
+      </c>
+      <c r="B313" t="s">
+        <v>100</v>
+      </c>
+      <c r="C313" t="s">
+        <v>101</v>
+      </c>
+      <c r="D313" t="s">
+        <v>102</v>
+      </c>
+      <c r="E313" t="s">
+        <v>103</v>
+      </c>
+      <c r="F313" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" t="s">
+        <v>18</v>
+      </c>
+      <c r="B314" t="s">
+        <v>105</v>
+      </c>
+      <c r="C314" t="s">
+        <v>106</v>
+      </c>
+      <c r="D314" t="s">
+        <v>107</v>
+      </c>
+      <c r="E314" t="s">
+        <v>108</v>
+      </c>
+      <c r="F314" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" t="s">
+        <v>110</v>
+      </c>
+      <c r="B315" t="s">
+        <v>111</v>
+      </c>
+      <c r="C315" t="s">
+        <v>112</v>
+      </c>
+      <c r="D315" t="s">
+        <v>113</v>
+      </c>
+      <c r="E315" t="s">
+        <v>114</v>
+      </c>
+      <c r="F315" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" t="s">
+        <v>116</v>
+      </c>
+      <c r="B316" t="s">
+        <v>117</v>
+      </c>
+      <c r="C316" t="s">
+        <v>118</v>
+      </c>
+      <c r="D316" t="s">
+        <v>119</v>
+      </c>
+      <c r="E316" t="s">
+        <v>120</v>
+      </c>
+      <c r="F316" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" t="s">
+        <v>122</v>
+      </c>
+      <c r="B317" t="s">
+        <v>123</v>
+      </c>
+      <c r="C317" t="s">
+        <v>124</v>
+      </c>
+      <c r="D317" t="s">
+        <v>125</v>
+      </c>
+      <c r="E317" t="s">
+        <v>126</v>
+      </c>
+      <c r="F317" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" t="s">
+        <v>23</v>
+      </c>
+      <c r="B318" t="s">
+        <v>128</v>
+      </c>
+      <c r="C318" t="s">
+        <v>129</v>
+      </c>
+      <c r="D318" t="s">
+        <v>130</v>
+      </c>
+      <c r="E318" t="s">
+        <v>131</v>
+      </c>
+      <c r="F318" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" t="s">
+        <v>33</v>
+      </c>
+      <c r="B319" t="s">
+        <v>133</v>
+      </c>
+      <c r="C319" t="s">
+        <v>134</v>
+      </c>
+      <c r="D319" t="s">
+        <v>135</v>
+      </c>
+      <c r="E319" t="s">
+        <v>136</v>
+      </c>
+      <c r="F319" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" t="s">
+        <v>38</v>
+      </c>
+      <c r="B320"/>
+      <c r="C320"/>
+      <c r="D320"/>
+      <c r="E320"/>
+      <c r="F320"/>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" t="s">
+        <v>39</v>
+      </c>
+      <c r="B321" t="s">
+        <v>138</v>
+      </c>
+      <c r="C321" t="s">
+        <v>139</v>
+      </c>
+      <c r="D321" t="s">
+        <v>140</v>
+      </c>
+      <c r="E321" t="s">
+        <v>141</v>
+      </c>
+      <c r="F321" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" t="s">
+        <v>44</v>
+      </c>
+      <c r="B322" t="s">
+        <v>143</v>
+      </c>
+      <c r="C322" t="s">
+        <v>144</v>
+      </c>
+      <c r="D322" t="s">
+        <v>145</v>
+      </c>
+      <c r="E322" t="s">
+        <v>146</v>
+      </c>
+      <c r="F322" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" t="s">
+        <v>46</v>
+      </c>
+      <c r="B323" t="s">
+        <v>148</v>
+      </c>
+      <c r="C323" t="s">
+        <v>149</v>
+      </c>
+      <c r="D323" t="s">
+        <v>150</v>
+      </c>
+      <c r="E323" t="s">
+        <v>151</v>
+      </c>
+      <c r="F323" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" t="s">
+        <v>49</v>
+      </c>
+      <c r="B324" t="s">
+        <v>153</v>
+      </c>
+      <c r="C324" t="s">
+        <v>154</v>
+      </c>
+      <c r="D324" t="s">
+        <v>155</v>
+      </c>
+      <c r="E324" t="s">
+        <v>156</v>
+      </c>
+      <c r="F324" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" t="s">
+        <v>51</v>
+      </c>
+      <c r="B325" t="s">
+        <v>158</v>
+      </c>
+      <c r="C325" t="s">
+        <v>159</v>
+      </c>
+      <c r="D325" t="s">
+        <v>160</v>
+      </c>
+      <c r="E325" t="s">
+        <v>161</v>
+      </c>
+      <c r="F325" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" t="s">
+        <v>55</v>
+      </c>
+      <c r="B326" t="s">
+        <v>163</v>
+      </c>
+      <c r="C326" t="s">
+        <v>164</v>
+      </c>
+      <c r="D326" t="s">
+        <v>165</v>
+      </c>
+      <c r="E326" t="s">
+        <v>166</v>
+      </c>
+      <c r="F326" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" t="s">
+        <v>168</v>
+      </c>
+      <c r="B327"/>
+      <c r="C327"/>
+      <c r="D327"/>
+      <c r="E327"/>
+      <c r="F327"/>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" t="s">
+        <v>169</v>
+      </c>
+      <c r="B328" t="s">
+        <v>170</v>
+      </c>
+      <c r="C328" t="s">
+        <v>171</v>
+      </c>
+      <c r="D328" t="s">
+        <v>172</v>
+      </c>
+      <c r="E328" t="s">
+        <v>173</v>
+      </c>
+      <c r="F328" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" t="s">
+        <v>175</v>
+      </c>
+      <c r="B329" t="s">
+        <v>176</v>
+      </c>
+      <c r="C329" t="s">
+        <v>177</v>
+      </c>
+      <c r="D329" t="s">
+        <v>178</v>
+      </c>
+      <c r="E329" t="s">
+        <v>179</v>
+      </c>
+      <c r="F329" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" t="s">
+        <v>181</v>
+      </c>
+      <c r="B330" t="s">
+        <v>182</v>
+      </c>
+      <c r="C330" t="s">
+        <v>183</v>
+      </c>
+      <c r="D330" t="s">
+        <v>184</v>
+      </c>
+      <c r="E330" t="s">
+        <v>185</v>
+      </c>
+      <c r="F330" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" t="s">
+        <v>187</v>
+      </c>
+      <c r="B331" t="s">
+        <v>188</v>
+      </c>
+      <c r="C331" t="s">
+        <v>189</v>
+      </c>
+      <c r="D331" t="s">
+        <v>190</v>
+      </c>
+      <c r="E331" t="s">
+        <v>191</v>
+      </c>
+      <c r="F331" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" t="s">
+        <v>193</v>
+      </c>
+      <c r="B332" t="s">
+        <v>194</v>
+      </c>
+      <c r="C332" t="s">
+        <v>195</v>
+      </c>
+      <c r="D332" t="s">
+        <v>196</v>
+      </c>
+      <c r="E332" t="s">
+        <v>197</v>
+      </c>
+      <c r="F332" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" t="s">
+        <v>199</v>
+      </c>
+      <c r="B333" t="s">
+        <v>200</v>
+      </c>
+      <c r="C333" t="s">
+        <v>201</v>
+      </c>
+      <c r="D333" t="s">
+        <v>202</v>
+      </c>
+      <c r="E333" t="s">
+        <v>203</v>
+      </c>
+      <c r="F333" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" t="s">
+        <v>60</v>
+      </c>
+      <c r="B334" t="s">
+        <v>205</v>
+      </c>
+      <c r="C334" t="s">
+        <v>206</v>
+      </c>
+      <c r="D334" t="s">
+        <v>207</v>
+      </c>
+      <c r="E334" t="s">
+        <v>208</v>
+      </c>
+      <c r="F334" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" t="s">
+        <v>65</v>
+      </c>
+      <c r="B335" t="s">
+        <v>210</v>
+      </c>
+      <c r="C335" t="s">
+        <v>211</v>
+      </c>
+      <c r="D335" t="s">
+        <v>212</v>
+      </c>
+      <c r="E335" t="s">
+        <v>213</v>
+      </c>
+      <c r="F335" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" t="s">
+        <v>70</v>
+      </c>
+      <c r="B336" t="s">
+        <v>215</v>
+      </c>
+      <c r="C336" t="s">
+        <v>216</v>
+      </c>
+      <c r="D336" t="s">
+        <v>211</v>
+      </c>
+      <c r="E336" t="s">
+        <v>217</v>
+      </c>
+      <c r="F336" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" t="s">
+        <v>75</v>
+      </c>
+      <c r="B337"/>
+      <c r="C337"/>
+      <c r="D337"/>
+      <c r="E337"/>
+      <c r="F337"/>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" t="s">
+        <v>76</v>
+      </c>
+      <c r="B338" t="s">
+        <v>133</v>
+      </c>
+      <c r="C338" t="s">
+        <v>134</v>
+      </c>
+      <c r="D338" t="s">
+        <v>135</v>
+      </c>
+      <c r="E338" t="s">
+        <v>136</v>
+      </c>
+      <c r="F338" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" t="s">
+        <v>77</v>
+      </c>
+      <c r="B339" t="s">
+        <v>138</v>
+      </c>
+      <c r="C339" t="s">
+        <v>139</v>
+      </c>
+      <c r="D339" t="s">
+        <v>140</v>
+      </c>
+      <c r="E339" t="s">
+        <v>141</v>
+      </c>
+      <c r="F339" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" t="s">
+        <v>75</v>
+      </c>
+      <c r="B340" t="s">
+        <v>128</v>
+      </c>
+      <c r="C340" t="s">
+        <v>129</v>
+      </c>
+      <c r="D340" t="s">
+        <v>130</v>
+      </c>
+      <c r="E340" t="s">
+        <v>131</v>
+      </c>
+      <c r="F340" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
